--- a/src/main/java/com/scenario/KeywordDriven (1).xlsx
+++ b/src/main/java/com/scenario/KeywordDriven (1).xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAIBHAV\eclipse-workspace\Flipkart_HybridFramework\src\main\java\com\scenario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{886E52A3-1EB7-4E26-B45E-BC05A228AF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A4B6FD0F-4B71-4671-BFA8-CEF0870BFD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{D3E49D20-2151-40CD-AFAB-A9397B0F0C06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D3E49D20-2151-40CD-AFAB-A9397B0F0C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,12 +191,6 @@
     <t>websubmit</t>
   </si>
   <si>
-    <t xml:space="preserve">vijaya </t>
-  </si>
-  <si>
-    <t>kadiyala</t>
-  </si>
-  <si>
     <t>//span[text()='Vaibhav Bohari']</t>
   </si>
   <si>
@@ -220,6 +210,12 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>vaibhav</t>
+  </si>
+  <si>
+    <t>bohari</t>
   </si>
 </sst>
 </file>
@@ -677,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
@@ -761,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0A9468-6897-4628-865A-B9E6D1FFF8E1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -873,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -890,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -924,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,7 +954,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,7 +988,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
